--- a/interfaceTesting/PC版72投接口测试用例.xlsx
+++ b/interfaceTesting/PC版72投接口测试用例.xlsx
@@ -1,12 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonWork\first\interfaceTesting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E135A0-7895-4D3D-B896-3C043CDFD435}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" r:id="rId3" sheetId="1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -289,35 +296,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="等线"/>
-      <sz val="11.0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <strike val="false"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
-      <sz val="9.0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <strike val="false"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0066CC"/>
       <name val="等线"/>
-      <sz val="11.0"/>
-      <u val="single"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-      <strike val="false"/>
-      <color rgb="0066CC"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -325,7 +338,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -336,85 +349,395 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.833333333333334" customWidth="true"/>
-    <col min="2" max="2" width="10.833333333333334" customWidth="true"/>
-    <col min="3" max="3" width="10.833333333333334" customWidth="true"/>
-    <col min="4" max="4" width="10.833333333333334" customWidth="true"/>
-    <col min="5" max="5" width="10.833333333333334" customWidth="true"/>
-    <col min="6" max="6" width="19.833333333333332" customWidth="true"/>
-    <col min="7" max="7" width="31.833333333333332" customWidth="true"/>
-    <col min="8" max="8" width="10.833333333333334" customWidth="true"/>
-    <col min="9" max="9" width="10.833333333333334" customWidth="true"/>
-    <col min="10" max="10" width="7.5" customWidth="true"/>
-    <col min="11" max="11" width="4.666666666666667" customWidth="true"/>
-    <col min="12" max="12" width="10.833333333333334" customWidth="true"/>
-    <col min="13" max="13" width="10.833333333333334" customWidth="true"/>
-    <col min="14" max="14" width="10.833333333333334" customWidth="true"/>
-    <col min="15" max="18" width="10.833333333333334" customWidth="true"/>
+    <col min="1" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="31.875" customWidth="1"/>
+    <col min="8" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="12" max="18" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="48.0">
+    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,9 +781,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customHeight="1" ht="80.0">
-      <c r="A2" s="3" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -488,14 +811,14 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="3" t="n">
-        <v>1.0</v>
+      <c r="L2" s="3">
+        <v>1</v>
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" customHeight="1" ht="80.0">
-      <c r="A3" s="3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
@@ -523,14 +846,14 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="3" t="n">
-        <v>1.0</v>
+      <c r="L3" s="3">
+        <v>1</v>
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" customHeight="1" ht="80.0">
-      <c r="A4" s="3" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
@@ -558,14 +881,14 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="3" t="n">
-        <v>1.0</v>
+      <c r="L4" s="3">
+        <v>1</v>
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" customHeight="1" ht="80.0">
-      <c r="A5" s="3" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -593,14 +916,14 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="3" t="n">
-        <v>1.0</v>
+      <c r="L5" s="3">
+        <v>1</v>
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" customHeight="1" ht="80.0">
-      <c r="A6" s="3" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>31</v>
@@ -628,14 +951,14 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="3" t="n">
-        <v>2.0</v>
+      <c r="L6" s="3">
+        <v>2</v>
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" customHeight="1" ht="80.0">
-      <c r="A7" s="3" t="n">
-        <v>6.0</v>
+    <row r="7" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>35</v>
@@ -663,17 +986,17 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="3" t="n">
-        <v>2.0</v>
+      <c r="L7" s="3">
+        <v>2</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" customHeight="1" ht="80.0">
-      <c r="A8" s="3" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>39</v>
@@ -701,17 +1024,17 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="3" t="n">
-        <v>2.0</v>
+      <c r="L8" s="3">
+        <v>2</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" customHeight="1" ht="80.0">
-      <c r="A9" s="3" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>42</v>
@@ -739,14 +1062,14 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="3" t="n">
-        <v>1.0</v>
+      <c r="L9" s="3">
+        <v>1</v>
       </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" customHeight="1" ht="80.0">
-      <c r="A10" s="3" t="n">
-        <v>9.0</v>
+    <row r="10" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>45</v>
@@ -774,14 +1097,14 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="3" t="n">
-        <v>1.0</v>
+      <c r="L10" s="3">
+        <v>1</v>
       </c>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" customHeight="1" ht="80.0">
-      <c r="A11" s="3" t="n">
-        <v>10.0</v>
+    <row r="11" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>47</v>
@@ -809,17 +1132,17 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="3" t="n">
-        <v>2.0</v>
+      <c r="L11" s="3">
+        <v>2</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" customHeight="1" ht="80.0">
-      <c r="A12" s="3" t="n">
-        <v>11.0</v>
+    <row r="12" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>51</v>
@@ -847,14 +1170,14 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="3" t="n">
-        <v>1.0</v>
+      <c r="L12" s="3">
+        <v>2</v>
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" customHeight="1" ht="80.0">
-      <c r="A13" s="3" t="n">
-        <v>12.0</v>
+    <row r="13" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>53</v>
@@ -882,14 +1205,14 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="3" t="n">
-        <v>1.0</v>
+      <c r="L13" s="3">
+        <v>1</v>
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" customHeight="1" ht="80.0">
-      <c r="A14" s="3" t="n">
-        <v>13.0</v>
+    <row r="14" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>56</v>
@@ -917,14 +1240,14 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="3" t="n">
-        <v>1.0</v>
+      <c r="L14" s="3">
+        <v>1</v>
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" customHeight="1" ht="80.0">
-      <c r="A15" s="3" t="n">
-        <v>14.0</v>
+    <row r="15" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
@@ -952,14 +1275,14 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3" t="n">
-        <v>1.0</v>
+      <c r="L15" s="3">
+        <v>1</v>
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" customHeight="1" ht="80.0">
-      <c r="A16" s="3" t="n">
-        <v>15.0</v>
+    <row r="16" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>62</v>
@@ -987,14 +1310,14 @@
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3" t="n">
-        <v>2.0</v>
+      <c r="L16" s="3">
+        <v>2</v>
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" customHeight="1" ht="80.0">
-      <c r="A17" s="3" t="n">
-        <v>16.0</v>
+    <row r="17" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>65</v>
@@ -1022,14 +1345,14 @@
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="9" t="n">
-        <v>1.0</v>
+      <c r="L17" s="9">
+        <v>1</v>
       </c>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" customHeight="1" ht="80.0">
-      <c r="A18" s="3" t="n">
-        <v>17.0</v>
+    <row r="18" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>68</v>
@@ -1057,13 +1380,13 @@
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" ht="80.0">
-      <c r="A19" s="3" t="n">
-        <v>18.0</v>
+      <c r="L18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>70</v>
@@ -1091,13 +1414,13 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" ht="80.0">
-      <c r="A20" s="3" t="n">
-        <v>19.0</v>
+      <c r="L19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
@@ -1125,13 +1448,13 @@
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" ht="80.0">
-      <c r="A21" s="3" t="n">
-        <v>20.0</v>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>75</v>
@@ -1159,13 +1482,13 @@
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" ht="80.0">
-      <c r="A22" s="13" t="n">
-        <v>21.0</v>
+      <c r="L21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>75</v>
@@ -1193,13 +1516,13 @@
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" ht="48.0">
-      <c r="A23" s="3" t="n">
-        <v>22.0</v>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>82</v>
@@ -1227,17 +1550,17 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="9" t="n">
-        <v>1.0</v>
+      <c r="L23" s="9">
+        <v>2</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" customHeight="1" ht="48.0">
-      <c r="A24" s="3" t="n">
-        <v>23.0</v>
+    <row r="24" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>82</v>
@@ -1265,379 +1588,53 @@
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="9" t="n">
-        <v>1.0</v>
+      <c r="L24" s="9">
+        <v>2</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
-    <row r="37">
-</row>
-    <row r="38">
-</row>
-    <row r="39">
-</row>
-    <row r="40">
-</row>
-    <row r="41">
-</row>
-    <row r="42">
-</row>
-    <row r="43">
-</row>
-    <row r="44">
-</row>
-    <row r="45">
-</row>
-    <row r="46">
-</row>
-    <row r="47">
-</row>
-    <row r="48">
-</row>
-    <row r="49">
-</row>
-    <row r="50">
-</row>
-    <row r="51">
-</row>
-    <row r="52">
-</row>
-    <row r="53">
-</row>
-    <row r="54">
-</row>
-    <row r="55">
-</row>
-    <row r="56">
-</row>
-    <row r="57">
-</row>
-    <row r="58">
-</row>
-    <row r="59">
-</row>
-    <row r="60">
-</row>
-    <row r="61">
-</row>
-    <row r="62">
-</row>
-    <row r="63">
-</row>
-    <row r="64">
-</row>
-    <row r="65">
-</row>
-    <row r="66">
-</row>
-    <row r="67">
-</row>
-    <row r="68">
-</row>
-    <row r="69">
-</row>
-    <row r="70">
-</row>
-    <row r="71">
-</row>
-    <row r="72">
-</row>
-    <row r="73">
-</row>
-    <row r="74">
-</row>
-    <row r="75">
-</row>
-    <row r="76">
-</row>
-    <row r="77">
-</row>
-    <row r="78">
-</row>
-    <row r="79">
-</row>
-    <row r="80">
-</row>
-    <row r="81">
-</row>
-    <row r="82">
-</row>
-    <row r="83">
-</row>
-    <row r="84">
-</row>
-    <row r="85">
-</row>
-    <row r="86">
-</row>
-    <row r="87">
-</row>
-    <row r="88">
-</row>
-    <row r="89">
-</row>
-    <row r="90">
-</row>
-    <row r="91">
-</row>
-    <row r="92">
-</row>
-    <row r="93">
-</row>
-    <row r="94">
-</row>
-    <row r="95">
-</row>
-    <row r="96">
-</row>
-    <row r="97">
-</row>
-    <row r="98">
-</row>
-    <row r="99">
-</row>
-    <row r="100">
-</row>
-    <row r="101">
-</row>
-    <row r="102">
-</row>
-    <row r="103">
-</row>
-    <row r="104">
-</row>
-    <row r="105">
-</row>
-    <row r="106">
-</row>
-    <row r="107">
-</row>
-    <row r="108">
-</row>
-    <row r="109">
-</row>
-    <row r="110">
-</row>
-    <row r="111">
-</row>
-    <row r="112">
-</row>
-    <row r="113">
-</row>
-    <row r="114">
-</row>
-    <row r="115">
-</row>
-    <row r="116">
-</row>
-    <row r="117">
-</row>
-    <row r="118">
-</row>
-    <row r="119">
-</row>
-    <row r="120">
-</row>
-    <row r="121">
-</row>
-    <row r="122">
-</row>
-    <row r="123">
-</row>
-    <row r="124">
-</row>
-    <row r="125">
-</row>
-    <row r="126">
-</row>
-    <row r="127">
-</row>
-    <row r="128">
-</row>
-    <row r="129">
-</row>
-    <row r="130">
-</row>
-    <row r="131">
-</row>
-    <row r="132">
-</row>
-    <row r="133">
-</row>
-    <row r="134">
-</row>
-    <row r="135">
-</row>
-    <row r="136">
-</row>
-    <row r="137">
-</row>
-    <row r="138">
-</row>
-    <row r="139">
-</row>
-    <row r="140">
-</row>
-    <row r="141">
-</row>
-    <row r="142">
-</row>
-    <row r="143">
-</row>
-    <row r="144">
-</row>
-    <row r="145">
-</row>
-    <row r="146">
-</row>
-    <row r="147">
-</row>
-    <row r="148">
-</row>
-    <row r="149">
-</row>
-    <row r="150">
-</row>
-    <row r="151">
-</row>
-    <row r="152">
-</row>
-    <row r="153">
-</row>
-    <row r="154">
-</row>
-    <row r="155">
-</row>
-    <row r="156">
-</row>
-    <row r="157">
-</row>
-    <row r="158">
-</row>
-    <row r="159">
-</row>
-    <row r="160">
-</row>
-    <row r="161">
-</row>
-    <row r="162">
-</row>
-    <row r="163">
-</row>
-    <row r="164">
-</row>
-    <row r="165">
-</row>
-    <row r="166">
-</row>
-    <row r="167">
-</row>
-    <row r="168">
-</row>
-    <row r="169">
-</row>
-    <row r="170">
-</row>
-    <row r="171">
-</row>
-    <row r="172">
-</row>
-    <row r="173">
-</row>
-    <row r="174">
-</row>
-    <row r="175">
-</row>
-    <row r="176">
-</row>
-    <row r="177">
-</row>
-    <row r="178">
-</row>
-    <row r="179">
-</row>
-    <row r="180">
-</row>
-    <row r="181">
-</row>
-    <row r="182">
-</row>
-    <row r="183">
-</row>
-    <row r="184">
-</row>
-    <row r="185">
-</row>
-    <row r="186">
-</row>
-    <row r="187">
-</row>
-    <row r="188">
-</row>
-    <row r="189">
-</row>
-    <row r="190">
-</row>
-    <row r="191">
-</row>
-    <row r="192">
-</row>
-    <row r="193">
-</row>
-    <row r="194">
-</row>
-    <row r="195">
-</row>
-    <row r="196">
-</row>
-    <row r="197">
-</row>
-    <row r="198">
-</row>
-    <row r="199">
-</row>
-    <row r="200">
-</row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>